--- a/Crawling/기록-용어정리.xlsx
+++ b/Crawling/기록-용어정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grulsuitg/study/KBLPredict/Crawling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F9B357-2FC1-E448-85C1-B59C01897430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4462EA3-B0D1-7145-9883-F0DB1D57F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16300" windowHeight="21940" xr2:uid="{E203C451-14CA-B64A-BDF1-37E999F8FA70}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="119">
   <si>
     <t>ast</t>
   </si>
@@ -345,6 +345,126 @@
   </si>
   <si>
     <t>팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수비 리바운드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2점슛 성공률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유투 성공률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3점슛 성공률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페인트존 득점률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 리바운드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤치득점률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>속공 횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>덩크 성공률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테크니컬파울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어시스트 / 필드골 성공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2점 슛 성공 / 2점 슛 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유투 성공 / 자유투 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3점슛 성공 / 3점슛 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤치득점 / 전체 득점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페인트존 득점 / 페인트존 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>덩크 성공 / 덩크 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>득점 우위 시간 / 40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>속공 횟수 / 필드골 성공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>속공 득점 / 전체 득점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록슛 / 상대 필드골 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디펜스 리바운드 / 상대 오펜스 + 디펜스 리바운드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">파울 - 테크니컬 파울 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 리바운드 / 공격 리바운드 + 상대 디펜스 리바운드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세컨 찬스 득점 / 전체 득점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최다 연속 득점 / 전체 득점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 종료시 점수차 / 최다 리드 점수차</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -397,12 +517,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,82 +841,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989C0A95-1478-DA4B-ABED-58AB4EA8BFB8}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -803,61 +1008,106 @@
       <c r="E9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -988,7 +1238,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -996,7 +1246,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1004,7 +1254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1012,7 +1262,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1020,7 +1270,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1028,7 +1278,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1036,7 +1286,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1044,7 +1294,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1052,7 +1302,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1060,7 +1310,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1068,7 +1318,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1076,7 +1326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1084,7 +1334,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1092,21 +1342,138 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="B47" t="s">
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
         <v>86</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C50" t="s">
         <v>87</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="C52" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="C53" t="s">
         <v>47</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="H55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60" t="s">
         <v>88</v>
       </c>
+      <c r="F60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61" t="s">
+        <v>92</v>
+      </c>
+      <c r="H61" t="s">
+        <v>91</v>
+      </c>
+      <c r="I61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="C64" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
